--- a/目次.xlsx
+++ b/目次.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ono\Desktop\パンフレット作成\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5E91E2B-5A2B-463F-BD9D-D796760E0DE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{994FBE0D-4291-476C-BFE2-80A79899254D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,29 +28,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>化 成 肥 料</t>
-    <rPh sb="0" eb="1">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>シゲル</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>コエ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>リョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,7 +52,6 @@
     <font>
       <b/>
       <sz val="16"/>
-      <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -77,16 +59,6 @@
     </font>
     <font>
       <sz val="16"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="0"/>
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -133,35 +105,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -452,197 +409,194 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.5" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="4" width="8.6640625" style="4"/>
-    <col min="5" max="5" width="4.58203125" style="4" customWidth="1"/>
-    <col min="6" max="16384" width="8.6640625" style="4"/>
+    <col min="1" max="4" width="8.6640625" style="2"/>
+    <col min="5" max="5" width="4.58203125" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="7"/>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="7"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="5"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="5"/>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:5" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="5"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="5"/>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="5"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="5"/>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="5"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="5"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="5"/>
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="8"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
     </row>
     <row r="19" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="5"/>
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
     </row>
     <row r="21" spans="1:5" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="5"/>
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="5"/>
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="3"/>
     </row>
     <row r="23" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
     </row>
     <row r="24" spans="1:5" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="5"/>
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="3"/>
     </row>
     <row r="25" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
     </row>
     <row r="26" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
     </row>
     <row r="27" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="28" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -650,7 +604,7 @@
     <row r="30" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="31" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="32" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="33" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="33" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/目次.xlsx
+++ b/目次.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ono\Desktop\パンフレット作成\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{994FBE0D-4291-476C-BFE2-80A79899254D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B52505D6-66D1-4606-ABCC-F0D983B233B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,10 +25,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -409,202 +405,179 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.5" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="4" width="8.6640625" style="2"/>
-    <col min="5" max="5" width="4.58203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="4.58203125" style="3" customWidth="1"/>
     <col min="6" max="16384" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.6">
+    </row>
+    <row r="3" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="5" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:5" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    </row>
+    <row r="6" spans="1:4" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="7" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="8" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:5" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    </row>
+    <row r="9" spans="1:4" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="10" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="11" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:5" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    </row>
+    <row r="12" spans="1:4" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="13" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="14" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="1:5" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    </row>
+    <row r="15" spans="1:4" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
-      <c r="E15" s="3"/>
-    </row>
-    <row r="16" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="16" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="3"/>
-    </row>
-    <row r="17" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="17" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-    </row>
-    <row r="18" spans="1:5" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    </row>
+    <row r="18" spans="1:4" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
     </row>
-    <row r="19" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="3"/>
-    </row>
-    <row r="20" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="20" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-    </row>
-    <row r="21" spans="1:5" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    </row>
+    <row r="21" spans="1:4" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
-      <c r="E21" s="3"/>
-    </row>
-    <row r="22" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="22" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="3"/>
-    </row>
-    <row r="23" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="23" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-    </row>
-    <row r="24" spans="1:5" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    </row>
+    <row r="24" spans="1:4" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
-      <c r="E24" s="3"/>
-    </row>
-    <row r="25" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="25" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-    </row>
-    <row r="26" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="26" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-    </row>
-    <row r="27" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="28" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="29" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="30" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="31" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="32" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="33" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    </row>
+    <row r="27" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="28" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="29" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="30" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="31" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="32" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="33" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/目次.xlsx
+++ b/目次.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ono\Desktop\パンフレット作成\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B52505D6-66D1-4606-ABCC-F0D983B233B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6358F7E-D538-4CD6-B9C9-39B8F83890C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -69,30 +69,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="mediumDashed">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="mediumDashed">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -101,11 +83,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -114,7 +93,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -405,178 +384,203 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.5" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="4" width="8.6640625" style="2"/>
-    <col min="5" max="5" width="4.58203125" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="8.6640625" style="2"/>
+    <col min="1" max="4" width="8.6640625" style="1"/>
+    <col min="5" max="5" width="4.58203125" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-    </row>
-    <row r="4" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:4" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-    </row>
-    <row r="7" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:4" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-    </row>
-    <row r="10" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:4" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-    </row>
-    <row r="13" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="1:4" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-    </row>
-    <row r="16" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="1:4" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-    </row>
-    <row r="19" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
-    </row>
-    <row r="21" spans="1:4" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-    </row>
-    <row r="22" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-    </row>
-    <row r="23" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
-    </row>
-    <row r="24" spans="1:4" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-    </row>
-    <row r="25" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
-    </row>
-    <row r="26" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-    </row>
-    <row r="27" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="28" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="29" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="30" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="31" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="32" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="28" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="29" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="30" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="31" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="32" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="33" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/目次.xlsx
+++ b/目次.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ono\Desktop\パンフレット作成\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6358F7E-D538-4CD6-B9C9-39B8F83890C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9327E947-3B37-48C0-A3BB-D8AD181A8A63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -60,6 +60,14 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -69,7 +77,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -77,13 +85,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -93,7 +119,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -383,191 +427,180 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A15" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.5" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="4" width="8.6640625" style="1"/>
-    <col min="5" max="5" width="4.58203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="4.58203125" style="3" customWidth="1"/>
     <col min="6" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
+      <c r="A1" s="4"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="5"/>
     </row>
     <row r="2" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="7"/>
     </row>
     <row r="4" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="9"/>
     </row>
     <row r="9" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="7"/>
     </row>
     <row r="10" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="5"/>
     </row>
     <row r="14" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="9"/>
     </row>
     <row r="15" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="7"/>
     </row>
     <row r="16" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
     </row>
     <row r="18" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
     </row>
     <row r="19" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="5"/>
     </row>
     <row r="20" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="9"/>
     </row>
     <row r="21" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="7"/>
     </row>
     <row r="22" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="5"/>
     </row>
     <row r="23" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="9"/>
     </row>
     <row r="24" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="7"/>
     </row>
     <row r="25" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
     </row>
     <row r="26" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="2"/>

--- a/目次.xlsx
+++ b/目次.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ono\Desktop\パンフレット作成\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9327E947-3B37-48C0-A3BB-D8AD181A8A63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89DAB1C5-5BB3-43CE-BCD5-781E5E9F2847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -109,7 +109,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -125,16 +125,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
@@ -427,8 +418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A15" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:E24"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.5" x14ac:dyDescent="0.55000000000000004"/>
@@ -443,164 +434,175 @@
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
-      <c r="E1" s="5"/>
+      <c r="E1" s="6"/>
     </row>
     <row r="2" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
+      <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="7"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
+      <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
+      <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
+      <c r="E6" s="6"/>
     </row>
     <row r="7" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="5"/>
+      <c r="E7" s="6"/>
     </row>
     <row r="8" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="9"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="7"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="6"/>
     </row>
     <row r="10" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
+      <c r="E10" s="6"/>
     </row>
     <row r="11" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
+      <c r="E11" s="6"/>
     </row>
     <row r="12" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
+      <c r="E12" s="6"/>
     </row>
     <row r="13" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
-      <c r="E13" s="5"/>
+      <c r="E13" s="6"/>
     </row>
     <row r="14" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="9"/>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="6"/>
     </row>
     <row r="15" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="7"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="6"/>
     </row>
     <row r="16" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
+      <c r="E16" s="6"/>
     </row>
     <row r="17" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
+      <c r="E17" s="6"/>
     </row>
     <row r="18" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
+      <c r="E18" s="6"/>
     </row>
     <row r="19" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
-      <c r="E19" s="5"/>
+      <c r="E19" s="6"/>
     </row>
     <row r="20" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="9"/>
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="6"/>
     </row>
     <row r="21" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="7"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="6"/>
     </row>
     <row r="22" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
-      <c r="E22" s="5"/>
+      <c r="E22" s="6"/>
     </row>
     <row r="23" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="9"/>
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="6"/>
     </row>
     <row r="24" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="7"/>
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="6"/>
     </row>
     <row r="25" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
+      <c r="E25" s="6"/>
     </row>
     <row r="26" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="2"/>

--- a/目次.xlsx
+++ b/目次.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ono\Desktop\パンフレット作成\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89DAB1C5-5BB3-43CE-BCD5-781E5E9F2847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{825BE609-71D1-4E23-A3AC-F99ED687E0AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -109,7 +109,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -126,9 +126,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -418,204 +415,179 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
-    </sheetView>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.5" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="4" width="8.6640625" style="1"/>
     <col min="5" max="5" width="4.58203125" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="8.6640625" style="1"/>
+    <col min="6" max="9" width="8.6640625" style="1"/>
+    <col min="10" max="10" width="4.58203125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
-      <c r="E1" s="6"/>
-    </row>
-    <row r="2" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="2" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="6"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="6"/>
-    </row>
-    <row r="4" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="4" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
-      <c r="E4" s="6"/>
-    </row>
-    <row r="5" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="5" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="6"/>
-    </row>
-    <row r="6" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="6" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="6"/>
-    </row>
-    <row r="7" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="7" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="6"/>
-    </row>
-    <row r="8" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="8" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="6"/>
-    </row>
-    <row r="9" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="9" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
-      <c r="E9" s="6"/>
-    </row>
-    <row r="10" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="10" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="6"/>
-    </row>
-    <row r="11" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="11" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="6"/>
-    </row>
-    <row r="12" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="12" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="6"/>
-    </row>
-    <row r="13" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="13" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
-      <c r="E13" s="6"/>
-    </row>
-    <row r="14" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="14" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="6"/>
-    </row>
-    <row r="15" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="15" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
-      <c r="E15" s="6"/>
-    </row>
-    <row r="16" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="16" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="6"/>
-    </row>
-    <row r="17" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="17" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="6"/>
-    </row>
-    <row r="18" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="18" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
-      <c r="E18" s="6"/>
-    </row>
-    <row r="19" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="19" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
-      <c r="E19" s="6"/>
-    </row>
-    <row r="20" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="20" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="6"/>
-    </row>
-    <row r="21" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="21" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
-      <c r="E21" s="6"/>
-    </row>
-    <row r="22" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="22" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
-      <c r="E22" s="6"/>
-    </row>
-    <row r="23" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="23" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
-      <c r="E23" s="6"/>
-    </row>
-    <row r="24" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="24" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
-      <c r="E24" s="6"/>
-    </row>
-    <row r="25" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="25" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
-      <c r="E25" s="6"/>
-    </row>
-    <row r="26" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="26" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="28" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="29" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="30" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="31" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="32" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="27" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="28" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="29" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="30" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="31" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="32" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="33" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <phoneticPr fontId="1"/>
